--- a/update-AQIs-data.xlsx
+++ b/update-AQIs-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
   <si>
     <t>time_point</t>
   </si>
@@ -80,7 +80,7 @@
     <t>so2_24h</t>
   </si>
   <si>
-    <t>2018-01-25T15:00:00Z</t>
+    <t>2018-01-28T13:00:00Z</t>
   </si>
   <si>
     <t>2015-06-01T14:00:00Z</t>
@@ -455,22 +455,22 @@
     <t>1370A</t>
   </si>
   <si>
+    <t>优</t>
+  </si>
+  <si>
     <t>良</t>
   </si>
   <si>
-    <t>优</t>
+    <t>轻度污染</t>
+  </si>
+  <si>
+    <t>颗粒物(PM10)</t>
   </si>
   <si>
     <t>细颗粒物(PM2.5)</t>
   </si>
   <si>
-    <t>颗粒物(PM10)</t>
-  </si>
-  <si>
     <t>颗粒物(PM2.5)</t>
-  </si>
-  <si>
-    <t>颗粒物(PM10),细颗粒物(PM2.5)</t>
   </si>
 </sst>
 </file>
@@ -916,55 +916,52 @@
         <v>89</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="H2" t="s">
-        <v>148</v>
-      </c>
       <c r="I2">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="O2">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="Q2">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S2">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -984,55 +981,52 @@
         <v>90</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
       <c r="I3">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N3">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="Q3">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="S3">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1114,55 +1108,52 @@
         <v>92</v>
       </c>
       <c r="F5">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>146</v>
       </c>
-      <c r="H5" t="s">
-        <v>149</v>
-      </c>
       <c r="I5">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="L5">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M5">
         <v>0.7</v>
       </c>
       <c r="N5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P5">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q5">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="R5">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="S5">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
         <v>10</v>
-      </c>
-      <c r="V5">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1182,55 +1173,52 @@
         <v>93</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>146</v>
       </c>
-      <c r="H6" t="s">
-        <v>148</v>
-      </c>
       <c r="I6">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="L6">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>0.9</v>
       </c>
       <c r="N6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="P6">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="Q6">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="R6">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="S6">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1250,55 +1238,52 @@
         <v>94</v>
       </c>
       <c r="F7">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" t="s">
-        <v>148</v>
-      </c>
       <c r="I7">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O7">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="P7">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Q7">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="R7">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="S7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1318,55 +1303,52 @@
         <v>95</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>146</v>
       </c>
-      <c r="H8" t="s">
-        <v>148</v>
-      </c>
       <c r="I8">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O8">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="R8">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="S8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="T8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="U8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1386,55 +1368,52 @@
         <v>96</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>146</v>
       </c>
-      <c r="H9" t="s">
-        <v>148</v>
-      </c>
       <c r="I9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="O9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="P9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="Q9">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="S9">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V9">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1454,55 +1433,52 @@
         <v>97</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
       </c>
-      <c r="H10" t="s">
-        <v>148</v>
-      </c>
       <c r="I10">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M10">
         <v>0.7</v>
       </c>
       <c r="N10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q10">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="R10">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="S10">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="U10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1522,55 +1498,52 @@
         <v>98</v>
       </c>
       <c r="F11">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>146</v>
       </c>
-      <c r="H11" t="s">
-        <v>148</v>
-      </c>
       <c r="I11">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P11">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="S11">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1590,55 +1563,52 @@
         <v>99</v>
       </c>
       <c r="F12">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>146</v>
       </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
       <c r="I12">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="N12">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P12">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q12">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="R12">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="S12">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="T12">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="U12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1658,55 +1628,52 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
       </c>
-      <c r="H13" t="s">
-        <v>148</v>
-      </c>
       <c r="I13">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M13">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>48</v>
       </c>
-      <c r="P13">
-        <v>64</v>
-      </c>
       <c r="Q13">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="S13">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1720,55 +1687,52 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>146</v>
       </c>
-      <c r="H14" t="s">
-        <v>150</v>
-      </c>
       <c r="I14">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M14">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="N14">
-        <v>0.891</v>
+        <v>1.027</v>
       </c>
       <c r="O14">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="P14">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="Q14">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="R14">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="S14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1788,55 +1752,52 @@
         <v>101</v>
       </c>
       <c r="F15">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>146</v>
       </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
       <c r="I15">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="N15">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="O15">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P15">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="Q15">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="R15">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="S15">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="T15">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="U15">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1856,55 +1817,52 @@
         <v>102</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>146</v>
       </c>
-      <c r="H16" t="s">
-        <v>148</v>
-      </c>
       <c r="I16">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P16">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R16">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S16">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="T16">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="U16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1924,55 +1882,52 @@
         <v>103</v>
       </c>
       <c r="F17">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
       </c>
-      <c r="H17" t="s">
-        <v>151</v>
-      </c>
       <c r="I17">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O17">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="P17">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="S17">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1992,55 +1947,52 @@
         <v>104</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>146</v>
       </c>
-      <c r="H18" t="s">
-        <v>149</v>
-      </c>
       <c r="I18">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J18">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N18">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O18">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="P18">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="R18">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="S18">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="T18">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="U18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="V18">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -2054,55 +2006,52 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>146</v>
       </c>
-      <c r="H19" t="s">
-        <v>150</v>
-      </c>
       <c r="I19">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="N19">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="P19">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q19">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="R19">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="S19">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -2122,55 +2071,52 @@
         <v>105</v>
       </c>
       <c r="F20">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
       </c>
-      <c r="H20" t="s">
-        <v>148</v>
-      </c>
       <c r="I20">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J20">
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>69</v>
+      </c>
+      <c r="M20">
+        <v>0.6</v>
+      </c>
+      <c r="N20">
+        <v>0.7</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+      <c r="P20">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>81</v>
-      </c>
-      <c r="M20">
-        <v>0.5</v>
-      </c>
-      <c r="N20">
-        <v>0.5</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>59</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="S20">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2190,52 +2136,52 @@
         <v>106</v>
       </c>
       <c r="F21">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
         <v>149</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J21">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N21">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
         <v>48</v>
       </c>
-      <c r="P21">
-        <v>61</v>
-      </c>
       <c r="Q21">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="S21">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="T21">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="U21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V21">
         <v>20</v>
@@ -2258,52 +2204,49 @@
         <v>107</v>
       </c>
       <c r="F22">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>146</v>
       </c>
-      <c r="H22" t="s">
-        <v>149</v>
-      </c>
       <c r="I22">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J22">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="O22">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P22">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Q22">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="S22">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="T22">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>11</v>
@@ -2326,52 +2269,52 @@
         <v>108</v>
       </c>
       <c r="F23">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J23">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>68</v>
+      </c>
+      <c r="M23">
+        <v>0.9</v>
+      </c>
+      <c r="N23">
+        <v>0.9</v>
+      </c>
+      <c r="O23">
         <v>35</v>
       </c>
-      <c r="K23">
-        <v>36</v>
-      </c>
-      <c r="L23">
-        <v>59</v>
-      </c>
-      <c r="M23">
-        <v>0.7</v>
-      </c>
-      <c r="N23">
-        <v>0.5</v>
-      </c>
-      <c r="O23">
-        <v>48</v>
-      </c>
       <c r="P23">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="S23">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2391,55 +2334,52 @@
         <v>109</v>
       </c>
       <c r="F24">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>146</v>
       </c>
-      <c r="H24" t="s">
-        <v>149</v>
-      </c>
       <c r="I24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J24">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L24">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="O24">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P24">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S24">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="T24">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2459,55 +2399,52 @@
         <v>110</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" t="s">
-        <v>149</v>
-      </c>
       <c r="I25">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M25">
         <v>0.7</v>
       </c>
       <c r="N25">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O25">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="P25">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="R25">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="S25">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2527,55 +2464,52 @@
         <v>111</v>
       </c>
       <c r="F26">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
         <v>146</v>
       </c>
-      <c r="H26" t="s">
-        <v>149</v>
-      </c>
       <c r="I26">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K26">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="L26">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="N26">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O26">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="S26">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="U26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V26">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2595,55 +2529,52 @@
         <v>112</v>
       </c>
       <c r="F27">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
         <v>146</v>
       </c>
-      <c r="H27" t="s">
-        <v>149</v>
-      </c>
       <c r="I27">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K27">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L27">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O27">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="P27">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="R27">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="S27">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T27">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="U27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2657,55 +2588,52 @@
         <v>25</v>
       </c>
       <c r="F28">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>146</v>
       </c>
-      <c r="H28" t="s">
-        <v>149</v>
-      </c>
       <c r="I28">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="L28">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>0.675</v>
+        <v>0.829</v>
       </c>
       <c r="N28">
-        <v>0.725</v>
+        <v>0.888</v>
       </c>
       <c r="O28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P28">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q28">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="S28">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="T28">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="U28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2725,52 +2653,52 @@
         <v>113</v>
       </c>
       <c r="F29">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J29">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K29">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O29">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P29">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Q29">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="R29">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="S29">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T29">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="U29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V29">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2790,55 +2718,52 @@
         <v>114</v>
       </c>
       <c r="F30">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>146</v>
       </c>
-      <c r="H30" t="s">
-        <v>148</v>
-      </c>
       <c r="I30">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J30">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K30">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N30">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q30">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="R30">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="S30">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="T30">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="U30">
         <v>6</v>
       </c>
       <c r="V30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2858,55 +2783,52 @@
         <v>115</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>146</v>
       </c>
-      <c r="H31" t="s">
-        <v>148</v>
-      </c>
       <c r="I31">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K31">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="L31">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N31">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O31">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Q31">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="R31">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="S31">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="T31">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V31">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2926,55 +2848,52 @@
         <v>116</v>
       </c>
       <c r="F32">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>146</v>
       </c>
-      <c r="H32" t="s">
-        <v>149</v>
-      </c>
       <c r="I32">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J32">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P32">
+        <v>34</v>
+      </c>
+      <c r="Q32">
+        <v>19</v>
+      </c>
+      <c r="R32">
+        <v>72</v>
+      </c>
+      <c r="S32">
         <v>16</v>
       </c>
-      <c r="Q32">
-        <v>100</v>
-      </c>
-      <c r="R32">
-        <v>118</v>
-      </c>
-      <c r="S32">
-        <v>78</v>
-      </c>
       <c r="T32">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2994,55 +2913,52 @@
         <v>117</v>
       </c>
       <c r="F33">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>146</v>
       </c>
-      <c r="H33" t="s">
-        <v>149</v>
-      </c>
       <c r="I33">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J33">
+        <v>41</v>
+      </c>
+      <c r="K33">
         <v>40</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>60</v>
       </c>
-      <c r="L33">
-        <v>52</v>
-      </c>
       <c r="M33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P33">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q33">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="R33">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="S33">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="T33">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3056,55 +2972,52 @@
         <v>26</v>
       </c>
       <c r="F34">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>146</v>
       </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
       <c r="I34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J34">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L34">
         <v>52</v>
       </c>
       <c r="M34">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="N34">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="O34">
+        <v>21</v>
+      </c>
+      <c r="P34">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <v>22</v>
+      </c>
+      <c r="R34">
+        <v>77</v>
+      </c>
+      <c r="S34">
         <v>19</v>
       </c>
-      <c r="P34">
-        <v>19</v>
-      </c>
-      <c r="Q34">
-        <v>106</v>
-      </c>
-      <c r="R34">
-        <v>128</v>
-      </c>
-      <c r="S34">
-        <v>76</v>
-      </c>
       <c r="T34">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3124,55 +3037,55 @@
         <v>118</v>
       </c>
       <c r="F35">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
         <v>149</v>
       </c>
       <c r="I35">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J35">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M35">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="N35">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="O35">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P35">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q35">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="R35">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="S35">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V35">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3192,55 +3105,52 @@
         <v>119</v>
       </c>
       <c r="F36">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>146</v>
       </c>
-      <c r="H36" t="s">
-        <v>148</v>
-      </c>
       <c r="I36">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J36">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="L36">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N36">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="O36">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P36">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="Q36">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="S36">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3260,55 +3170,55 @@
         <v>120</v>
       </c>
       <c r="F37">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I37">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M37">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="O37">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P37">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q37">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="S37">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="U37">
         <v>8</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3328,55 +3238,52 @@
         <v>121</v>
       </c>
       <c r="F38">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
       </c>
-      <c r="H38" t="s">
-        <v>148</v>
-      </c>
       <c r="I38">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J38">
         <v>46</v>
       </c>
       <c r="K38">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>1.1</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
       <c r="O38">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P38">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q38">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="R38">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="S38">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3396,55 +3303,52 @@
         <v>122</v>
       </c>
       <c r="F39">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
       </c>
-      <c r="H39" t="s">
-        <v>148</v>
-      </c>
       <c r="I39">
+        <v>29</v>
+      </c>
+      <c r="J39">
         <v>53</v>
       </c>
-      <c r="J39">
-        <v>51</v>
-      </c>
       <c r="K39">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L39">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M39">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="N39">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="O39">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P39">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q39">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="R39">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="S39">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="U39">
         <v>8</v>
       </c>
       <c r="V39">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3458,55 +3362,52 @@
         <v>27</v>
       </c>
       <c r="F40">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>146</v>
       </c>
-      <c r="H40" t="s">
-        <v>150</v>
-      </c>
       <c r="I40">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J40">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="O40">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P40">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="Q40">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="R40">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S40">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3526,52 +3427,55 @@
         <v>123</v>
       </c>
       <c r="F41">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>147</v>
       </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
       <c r="I41">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J41">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N41">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="O41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P41">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="S41">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V41">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3591,55 +3495,55 @@
         <v>124</v>
       </c>
       <c r="F42">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I42">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="M42">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="N42">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O42">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P42">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="S42">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="U42">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="V42">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3659,52 +3563,55 @@
         <v>125</v>
       </c>
       <c r="F43">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>147</v>
       </c>
+      <c r="H43" t="s">
+        <v>150</v>
+      </c>
       <c r="I43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M43">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="N43">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O43">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P43">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="R43">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="S43">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="T43">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="U43">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V43">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3724,52 +3631,55 @@
         <v>126</v>
       </c>
       <c r="F44">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
         <v>147</v>
       </c>
+      <c r="H44" t="s">
+        <v>150</v>
+      </c>
       <c r="I44">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J44">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="L44">
+        <v>87</v>
+      </c>
+      <c r="M44">
+        <v>1.1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
         <v>44</v>
       </c>
-      <c r="M44">
-        <v>0.6</v>
-      </c>
-      <c r="N44">
-        <v>0.5</v>
-      </c>
-      <c r="O44">
-        <v>31</v>
-      </c>
       <c r="P44">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q44">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="S44">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V44">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3783,52 +3693,55 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>147</v>
       </c>
+      <c r="H45" t="s">
+        <v>151</v>
+      </c>
       <c r="I45">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J45">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>0.6</v>
+        <v>1.075</v>
       </c>
       <c r="N45">
-        <v>0.725</v>
+        <v>1.05</v>
       </c>
       <c r="O45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P45">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="R45">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="S45">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="T45">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="U45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V45">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3848,52 +3761,55 @@
         <v>127</v>
       </c>
       <c r="F46">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
         <v>147</v>
       </c>
+      <c r="H46" t="s">
+        <v>149</v>
+      </c>
       <c r="I46">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J46">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K46">
+        <v>69</v>
+      </c>
+      <c r="L46">
+        <v>59</v>
+      </c>
+      <c r="M46">
+        <v>0.9</v>
+      </c>
+      <c r="N46">
+        <v>0.8</v>
+      </c>
+      <c r="O46">
+        <v>43</v>
+      </c>
+      <c r="P46">
+        <v>36</v>
+      </c>
+      <c r="Q46">
         <v>28</v>
       </c>
-      <c r="L46">
-        <v>45</v>
-      </c>
-      <c r="M46">
-        <v>0.7</v>
-      </c>
-      <c r="N46">
-        <v>0.7</v>
-      </c>
-      <c r="O46">
-        <v>16</v>
-      </c>
-      <c r="P46">
-        <v>18</v>
-      </c>
-      <c r="Q46">
-        <v>98</v>
-      </c>
       <c r="R46">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="S46">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="T46">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="U46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V46">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3913,52 +3829,55 @@
         <v>128</v>
       </c>
       <c r="F47">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
         <v>147</v>
       </c>
+      <c r="H47" t="s">
+        <v>149</v>
+      </c>
       <c r="I47">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J47">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K47">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P47">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q47">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="R47">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="S47">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="T47">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="U47">
         <v>4</v>
       </c>
       <c r="V47">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3978,52 +3897,55 @@
         <v>129</v>
       </c>
       <c r="F48">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s">
         <v>147</v>
       </c>
+      <c r="H48" t="s">
+        <v>150</v>
+      </c>
       <c r="I48">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J48">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K48">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L48">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0.9</v>
+      </c>
+      <c r="O48">
         <v>40</v>
       </c>
-      <c r="M48">
-        <v>0.7</v>
-      </c>
-      <c r="N48">
-        <v>0.7</v>
-      </c>
-      <c r="O48">
-        <v>13</v>
-      </c>
       <c r="P48">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q48">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="R48">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="S48">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="T48">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="U48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V48">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -4043,52 +3965,55 @@
         <v>130</v>
       </c>
       <c r="F49">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
         <v>147</v>
       </c>
+      <c r="H49" t="s">
+        <v>149</v>
+      </c>
       <c r="I49">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J49">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K49">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="L49">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M49">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0.8</v>
       </c>
       <c r="O49">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P49">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="Q49">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="R49">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="S49">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="T49">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V49">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4108,25 +4033,25 @@
         <v>131</v>
       </c>
       <c r="F50">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H50" t="s">
         <v>149</v>
       </c>
       <c r="I50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J50">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K50">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="L50">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M50">
         <v>0.7</v>
@@ -4135,25 +4060,25 @@
         <v>0.7</v>
       </c>
       <c r="O50">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="R50">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="S50">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="T50">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V50">
         <v>8</v>
@@ -4176,52 +4101,52 @@
         <v>132</v>
       </c>
       <c r="F51">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>38</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+      <c r="L51">
+        <v>79</v>
+      </c>
+      <c r="M51">
+        <v>0.6</v>
+      </c>
+      <c r="N51">
+        <v>0.6</v>
+      </c>
+      <c r="O51">
+        <v>17</v>
+      </c>
+      <c r="P51">
+        <v>35</v>
+      </c>
+      <c r="Q51">
         <v>33</v>
       </c>
-      <c r="G51" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51">
-        <v>17</v>
-      </c>
-      <c r="J51">
-        <v>28</v>
-      </c>
-      <c r="K51">
+      <c r="R51">
+        <v>85</v>
+      </c>
+      <c r="S51">
         <v>33</v>
       </c>
-      <c r="L51">
-        <v>49</v>
-      </c>
-      <c r="M51">
-        <v>0.4</v>
-      </c>
-      <c r="N51">
-        <v>0.5</v>
-      </c>
-      <c r="O51">
-        <v>5</v>
-      </c>
-      <c r="P51">
+      <c r="T51">
+        <v>36</v>
+      </c>
+      <c r="U51">
         <v>6</v>
       </c>
-      <c r="Q51">
-        <v>101</v>
-      </c>
-      <c r="R51">
-        <v>124</v>
-      </c>
-      <c r="S51">
-        <v>82</v>
-      </c>
-      <c r="T51">
-        <v>99</v>
-      </c>
-      <c r="U51">
-        <v>4</v>
-      </c>
       <c r="V51">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4241,52 +4166,55 @@
         <v>133</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
         <v>147</v>
       </c>
+      <c r="H52" t="s">
+        <v>149</v>
+      </c>
       <c r="I52">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J52">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P52">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R52">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="S52">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="T52">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="U52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V52">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4306,52 +4234,52 @@
         <v>134</v>
       </c>
       <c r="F53">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J53">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K53">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M53">
         <v>0.7</v>
       </c>
       <c r="N53">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O53">
+        <v>25</v>
+      </c>
+      <c r="P53">
+        <v>18</v>
+      </c>
+      <c r="Q53">
         <v>24</v>
       </c>
-      <c r="P53">
-        <v>8</v>
-      </c>
-      <c r="Q53">
-        <v>78</v>
-      </c>
       <c r="R53">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="S53">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="T53">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="U53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V53">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4371,52 +4299,52 @@
         <v>135</v>
       </c>
       <c r="F54">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I54">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J54">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K54">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L54">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M54">
+        <v>0.7</v>
+      </c>
+      <c r="N54">
         <v>0.6</v>
       </c>
-      <c r="N54">
-        <v>0.7</v>
-      </c>
       <c r="O54">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P54">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q54">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="R54">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="S54">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="T54">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="U54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V54">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4436,52 +4364,52 @@
         <v>136</v>
       </c>
       <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55">
+        <v>33</v>
+      </c>
+      <c r="J55">
+        <v>31</v>
+      </c>
+      <c r="K55">
         <v>40</v>
       </c>
-      <c r="G55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55">
-        <v>28</v>
-      </c>
-      <c r="J55">
-        <v>33</v>
-      </c>
-      <c r="K55">
-        <v>36</v>
-      </c>
       <c r="L55">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M55">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N55">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O55">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P55">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q55">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="R55">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="S55">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="T55">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="U55">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="V55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4501,49 +4429,55 @@
         <v>137</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4557,52 +4491,55 @@
         <v>29</v>
       </c>
       <c r="F57">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>147</v>
       </c>
+      <c r="H57" t="s">
+        <v>149</v>
+      </c>
       <c r="I57">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J57">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K57">
+        <v>68</v>
+      </c>
+      <c r="L57">
+        <v>63</v>
+      </c>
+      <c r="M57">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.755</v>
+      </c>
+      <c r="O57">
+        <v>33</v>
+      </c>
+      <c r="P57">
+        <v>38</v>
+      </c>
+      <c r="Q57">
         <v>35</v>
       </c>
-      <c r="L57">
-        <v>47</v>
-      </c>
-      <c r="M57">
-        <v>0.67</v>
-      </c>
-      <c r="N57">
-        <v>0.7</v>
-      </c>
-      <c r="O57">
-        <v>17</v>
-      </c>
-      <c r="P57">
-        <v>17</v>
-      </c>
-      <c r="Q57">
-        <v>94</v>
-      </c>
       <c r="R57">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="S57">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="T57">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="U57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V57">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4622,55 +4559,55 @@
         <v>138</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I58">
         <v>41</v>
       </c>
       <c r="J58">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L58">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M58">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O58">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P58">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Q58">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="R58">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="S58">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T58">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="U58">
+        <v>7</v>
+      </c>
+      <c r="V58">
         <v>15</v>
-      </c>
-      <c r="V58">
-        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4690,55 +4627,55 @@
         <v>139</v>
       </c>
       <c r="F59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H59" t="s">
         <v>149</v>
       </c>
       <c r="I59">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J59">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L59">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="M59">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N59">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P59">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="Q59">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="R59">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="S59">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="U59">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V59">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4758,55 +4695,55 @@
         <v>140</v>
       </c>
       <c r="F60">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I60">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K60">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L60">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M60">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O60">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P60">
+        <v>55</v>
+      </c>
+      <c r="Q60">
+        <v>12</v>
+      </c>
+      <c r="R60">
         <v>32</v>
       </c>
-      <c r="Q60">
-        <v>43</v>
-      </c>
-      <c r="R60">
-        <v>115</v>
-      </c>
       <c r="S60">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="T60">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="U60">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V60">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4826,55 +4763,52 @@
         <v>141</v>
       </c>
       <c r="F61">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>146</v>
       </c>
-      <c r="H61" t="s">
-        <v>149</v>
-      </c>
       <c r="I61">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J61">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="L61">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="M61">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="P61">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q61">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="R61">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="S61">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T61">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="U61">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="V61">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4888,55 +4822,55 @@
         <v>30</v>
       </c>
       <c r="F62">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H62" t="s">
         <v>149</v>
       </c>
       <c r="I62">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J62">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L62">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M62">
-        <v>0.7</v>
+        <v>0.975</v>
       </c>
       <c r="N62">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="O62">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P62">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q62">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="R62">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="S62">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="U62">
+        <v>5</v>
+      </c>
+      <c r="V62">
         <v>13</v>
-      </c>
-      <c r="V62">
-        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4956,52 +4890,55 @@
         <v>142</v>
       </c>
       <c r="F63">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
         <v>147</v>
       </c>
+      <c r="H63" t="s">
+        <v>150</v>
+      </c>
       <c r="I63">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J63">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K63">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M63">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="N63">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O63">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P63">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="Q63">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="R63">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="S63">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="T63">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="U63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V63">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -5021,52 +4958,55 @@
         <v>143</v>
       </c>
       <c r="F64">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64">
+        <v>91</v>
+      </c>
+      <c r="J64">
+        <v>56</v>
+      </c>
+      <c r="K64">
+        <v>94</v>
+      </c>
+      <c r="L64">
+        <v>65</v>
+      </c>
+      <c r="M64">
+        <v>1.1</v>
+      </c>
+      <c r="N64">
+        <v>0.9</v>
+      </c>
+      <c r="O64">
+        <v>45</v>
+      </c>
+      <c r="P64">
+        <v>61</v>
+      </c>
+      <c r="Q64">
+        <v>44</v>
+      </c>
+      <c r="R64">
+        <v>49</v>
+      </c>
+      <c r="S64">
         <v>38</v>
       </c>
-      <c r="G64" t="s">
-        <v>147</v>
-      </c>
-      <c r="I64">
-        <v>26</v>
-      </c>
-      <c r="J64">
-        <v>34</v>
-      </c>
-      <c r="K64">
-        <v>36</v>
-      </c>
-      <c r="L64">
-        <v>50</v>
-      </c>
-      <c r="M64">
-        <v>0.7</v>
-      </c>
-      <c r="N64">
-        <v>0.7</v>
-      </c>
-      <c r="O64">
-        <v>33</v>
-      </c>
-      <c r="P64">
-        <v>35</v>
-      </c>
-      <c r="Q64">
-        <v>86</v>
-      </c>
-      <c r="R64">
-        <v>113</v>
-      </c>
-      <c r="S64">
-        <v>68</v>
-      </c>
       <c r="T64">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="U64">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5086,52 +5026,52 @@
         <v>144</v>
       </c>
       <c r="F65">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I65">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J65">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L65">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O65">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P65">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q65">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="R65">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="S65">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="T65">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="U65">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V65">
         <v>17</v>
@@ -5154,52 +5094,55 @@
         <v>145</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>147</v>
       </c>
+      <c r="H66" t="s">
+        <v>149</v>
+      </c>
       <c r="I66">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J66">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="L66">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="M66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O66">
+        <v>41</v>
+      </c>
+      <c r="P66">
+        <v>59</v>
+      </c>
+      <c r="Q66">
         <v>20</v>
       </c>
-      <c r="P66">
-        <v>26</v>
-      </c>
-      <c r="Q66">
-        <v>95</v>
-      </c>
       <c r="R66">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="S66">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="T66">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="U66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5213,52 +5156,55 @@
         <v>31</v>
       </c>
       <c r="F67">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
         <v>147</v>
       </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
       <c r="I67">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="J67">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="L67">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M67">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="N67">
-        <v>0.6</v>
+        <v>0.875</v>
       </c>
       <c r="O67">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P67">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="Q67">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="R67">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="S67">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="T67">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="U67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V67">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5344,55 +5290,52 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
       <c r="G2">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K2">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="L2">
-        <v>0.891</v>
+        <v>1.027</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N2">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O2">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="P2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="Q2">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5406,55 +5349,52 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>146</v>
       </c>
-      <c r="F3" t="s">
-        <v>150</v>
-      </c>
       <c r="G3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="L3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O3">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="P3">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="Q3">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5468,55 +5408,52 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>146</v>
       </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
       <c r="G4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.675</v>
+        <v>0.829</v>
       </c>
       <c r="L4">
-        <v>0.725</v>
+        <v>0.888</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O4">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5530,55 +5467,52 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
       <c r="G5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>52</v>
       </c>
       <c r="K5">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>22</v>
+      </c>
+      <c r="P5">
+        <v>77</v>
+      </c>
+      <c r="Q5">
         <v>19</v>
       </c>
-      <c r="N5">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>106</v>
-      </c>
-      <c r="P5">
-        <v>128</v>
-      </c>
-      <c r="Q5">
-        <v>76</v>
-      </c>
       <c r="R5">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5592,55 +5526,52 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>146</v>
       </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
       <c r="G6">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I6">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="J6">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O6">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="Q6">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -5654,52 +5585,55 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
       </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
       <c r="G7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J7">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>1.075</v>
       </c>
       <c r="L7">
-        <v>0.725</v>
+        <v>1.05</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="O7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="Q7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -5713,52 +5647,55 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>147</v>
       </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
       <c r="G8">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.755</v>
+      </c>
+      <c r="M8">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
         <v>35</v>
       </c>
-      <c r="J8">
-        <v>47</v>
-      </c>
-      <c r="K8">
-        <v>0.67</v>
-      </c>
-      <c r="L8">
-        <v>0.7</v>
-      </c>
-      <c r="M8">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <v>17</v>
-      </c>
-      <c r="O8">
-        <v>94</v>
-      </c>
       <c r="P8">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Q8">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="R8">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -5772,55 +5709,55 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
         <v>149</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.975</v>
       </c>
       <c r="L9">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O9">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="Q9">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
         <v>13</v>
-      </c>
-      <c r="T9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -5834,52 +5771,55 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>147</v>
       </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
       <c r="G10">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0.875</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N10">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O10">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="P10">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R10">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/update-AQIs-data.xlsx
+++ b/update-AQIs-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="152">
   <si>
     <t>time_point</t>
   </si>
@@ -80,7 +80,7 @@
     <t>so2_24h</t>
   </si>
   <si>
-    <t>2018-01-28T13:00:00Z</t>
+    <t>2018-02-16T13:00:00Z</t>
   </si>
   <si>
     <t>2015-06-01T14:00:00Z</t>
@@ -455,7 +455,7 @@
     <t>1370A</t>
   </si>
   <si>
-    <t>优</t>
+    <t>中度污染</t>
   </si>
   <si>
     <t>良</t>
@@ -464,10 +464,10 @@
     <t>轻度污染</t>
   </si>
   <si>
+    <t>细颗粒物(PM2.5)</t>
+  </si>
+  <si>
     <t>颗粒物(PM10)</t>
-  </si>
-  <si>
-    <t>细颗粒物(PM2.5)</t>
   </si>
   <si>
     <t>颗粒物(PM2.5)</t>
@@ -916,52 +916,55 @@
         <v>89</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
       </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
       <c r="I2">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="R2">
+        <v>145</v>
+      </c>
+      <c r="S2">
         <v>38</v>
       </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
       <c r="T2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="V2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -981,52 +984,55 @@
         <v>90</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
       </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
       <c r="I3">
+        <v>116</v>
+      </c>
+      <c r="J3">
+        <v>113</v>
+      </c>
+      <c r="K3">
+        <v>121</v>
+      </c>
+      <c r="L3">
+        <v>102</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>1.7</v>
+      </c>
+      <c r="O3">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>67</v>
+      </c>
+      <c r="Q3">
+        <v>138</v>
+      </c>
+      <c r="R3">
+        <v>139</v>
+      </c>
+      <c r="S3">
+        <v>39</v>
+      </c>
+      <c r="T3">
+        <v>39</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
         <v>13</v>
-      </c>
-      <c r="J3">
-        <v>41</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>65</v>
-      </c>
-      <c r="M3">
-        <v>1.2</v>
-      </c>
-      <c r="N3">
-        <v>1.3</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>48</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>34</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>8</v>
-      </c>
-      <c r="V3">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1108,52 +1114,55 @@
         <v>92</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
         <v>146</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
       <c r="L5">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P5">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="R5">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1173,52 +1182,55 @@
         <v>93</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>149</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="J6">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="K6">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M6">
         <v>0.9</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="R6">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="V6">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1238,52 +1250,55 @@
         <v>94</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J7">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N7">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="O7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="P7">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="R7">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="V7">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1303,52 +1318,55 @@
         <v>95</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J8">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="K8">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P8">
         <v>42</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="R8">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="S8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="T8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1368,52 +1386,55 @@
         <v>96</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
       </c>
       <c r="I9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="J9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N9">
         <v>1.1</v>
       </c>
       <c r="O9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P9">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="R9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="V9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1433,52 +1454,55 @@
         <v>97</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
       </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
       <c r="I10">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="M10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P10">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="R10">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="V10">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1498,52 +1522,55 @@
         <v>98</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="J11">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="P11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q11">
+        <v>126</v>
+      </c>
+      <c r="R11">
+        <v>145</v>
+      </c>
+      <c r="S11">
+        <v>31</v>
+      </c>
+      <c r="T11">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
         <v>10</v>
-      </c>
-      <c r="R11">
-        <v>33</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <v>8</v>
-      </c>
-      <c r="V11">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1563,52 +1590,55 @@
         <v>99</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>149</v>
       </c>
       <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>62</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>0.4</v>
+      </c>
+      <c r="O12">
         <v>16</v>
       </c>
-      <c r="J12">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>49</v>
-      </c>
-      <c r="M12">
-        <v>1.1</v>
-      </c>
-      <c r="N12">
-        <v>1.1</v>
-      </c>
-      <c r="O12">
-        <v>20</v>
-      </c>
       <c r="P12">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="R12">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="S12">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="T12">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="U12">
+        <v>13</v>
+      </c>
+      <c r="V12">
         <v>8</v>
-      </c>
-      <c r="V12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1628,52 +1658,55 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
       </c>
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
       <c r="I13">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N13">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P13">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="R13">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V13">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1687,52 +1720,55 @@
         <v>23</v>
       </c>
       <c r="F14">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>124</v>
+      </c>
+      <c r="K14">
+        <v>129</v>
+      </c>
+      <c r="L14">
+        <v>101</v>
+      </c>
+      <c r="M14">
+        <v>0.782</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>26</v>
-      </c>
-      <c r="L14">
-        <v>61</v>
-      </c>
-      <c r="M14">
-        <v>0.95</v>
-      </c>
-      <c r="N14">
-        <v>1.027</v>
-      </c>
-      <c r="O14">
-        <v>28</v>
-      </c>
       <c r="P14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="R14">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="U14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="V14">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1752,52 +1788,55 @@
         <v>101</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>149</v>
       </c>
       <c r="I15">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="J15">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="M15">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N15">
         <v>1.1</v>
       </c>
       <c r="O15">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="R15">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1817,52 +1856,55 @@
         <v>102</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>149</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J16">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K16">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="L16">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="R16">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="S16">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1882,52 +1924,55 @@
         <v>103</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
+        <v>149</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="J17">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O17">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="R17">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1947,52 +1992,55 @@
         <v>104</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
       </c>
       <c r="I18">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="J18">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="M18">
+        <v>0.8</v>
+      </c>
+      <c r="N18">
         <v>0.7</v>
       </c>
-      <c r="N18">
-        <v>0.8</v>
-      </c>
       <c r="O18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P18">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="R18">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="S18">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="T18">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -2006,52 +2054,55 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="J19">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="M19">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q19">
+        <v>109</v>
+      </c>
+      <c r="R19">
+        <v>112</v>
+      </c>
+      <c r="S19">
+        <v>47</v>
+      </c>
+      <c r="T19">
+        <v>56</v>
+      </c>
+      <c r="U19">
         <v>13</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>17</v>
-      </c>
-      <c r="S19">
-        <v>10</v>
-      </c>
-      <c r="T19">
-        <v>10</v>
-      </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
-      <c r="V19">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -2071,52 +2122,55 @@
         <v>105</v>
       </c>
       <c r="F20">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
       </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
       <c r="I20">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="J20">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="K20">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="M20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N20">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="R20">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="V20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2136,55 +2190,55 @@
         <v>106</v>
       </c>
       <c r="F21">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
         <v>149</v>
       </c>
       <c r="I21">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="J21">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="K21">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="M21">
         <v>0.8</v>
       </c>
       <c r="N21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P21">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="R21">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="U21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2204,52 +2258,55 @@
         <v>107</v>
       </c>
       <c r="F22">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>146</v>
       </c>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
       <c r="I22">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="J22">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N22">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P22">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="R22">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="U22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V22">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2269,52 +2326,55 @@
         <v>108</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
       </c>
       <c r="I23">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="J23">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M23">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="N23">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="O23">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="R23">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2334,52 +2394,55 @@
         <v>109</v>
       </c>
       <c r="F24">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
       </c>
       <c r="I24">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="J24">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="L24">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M24">
+        <v>0.8</v>
+      </c>
+      <c r="N24">
         <v>1</v>
       </c>
-      <c r="N24">
-        <v>1.1</v>
-      </c>
       <c r="O24">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P24">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="R24">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V24">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2399,52 +2462,55 @@
         <v>110</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J25">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M25">
+        <v>0.6</v>
+      </c>
+      <c r="N25">
         <v>0.7</v>
       </c>
-      <c r="N25">
-        <v>0.8</v>
-      </c>
       <c r="O25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="R25">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="S25">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2464,52 +2530,55 @@
         <v>111</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="J26">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="M26">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
         <v>0.7</v>
       </c>
       <c r="O26">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R26">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="T26">
+        <v>59</v>
+      </c>
+      <c r="U26">
         <v>13</v>
       </c>
-      <c r="U26">
-        <v>4</v>
-      </c>
       <c r="V26">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2529,52 +2598,55 @@
         <v>112</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>149</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J27">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M27">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N27">
         <v>0.9</v>
       </c>
       <c r="O27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="R27">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="S27">
+        <v>50</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="U27">
         <v>11</v>
       </c>
-      <c r="T27">
-        <v>11</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
       <c r="V27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2588,52 +2660,55 @@
         <v>25</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H28" t="s">
+        <v>151</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J28">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="K28">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>0.829</v>
+        <v>0.763</v>
       </c>
       <c r="N28">
-        <v>0.888</v>
+        <v>0.925</v>
       </c>
       <c r="O28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P28">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="R28">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2653,52 +2728,55 @@
         <v>113</v>
       </c>
       <c r="F29">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>146</v>
       </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
       <c r="I29">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="J29">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="K29">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="M29">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="N29">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="O29">
         <v>22</v>
       </c>
       <c r="P29">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="R29">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="S29">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="T29">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2718,52 +2796,55 @@
         <v>114</v>
       </c>
       <c r="F30">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
         <v>146</v>
       </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
       <c r="I30">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="J30">
+        <v>134</v>
+      </c>
+      <c r="K30">
+        <v>184</v>
+      </c>
+      <c r="L30">
+        <v>173</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1.1</v>
+      </c>
+      <c r="O30">
+        <v>21</v>
+      </c>
+      <c r="P30">
+        <v>34</v>
+      </c>
+      <c r="Q30">
+        <v>88</v>
+      </c>
+      <c r="R30">
+        <v>96</v>
+      </c>
+      <c r="S30">
         <v>35</v>
       </c>
-      <c r="K30">
-        <v>28</v>
-      </c>
-      <c r="L30">
-        <v>48</v>
-      </c>
-      <c r="M30">
-        <v>0.9</v>
-      </c>
-      <c r="N30">
-        <v>0.9</v>
-      </c>
-      <c r="O30">
-        <v>21</v>
-      </c>
-      <c r="P30">
+      <c r="T30">
         <v>35</v>
       </c>
-      <c r="Q30">
-        <v>23</v>
-      </c>
-      <c r="R30">
-        <v>74</v>
-      </c>
-      <c r="S30">
-        <v>19</v>
-      </c>
-      <c r="T30">
-        <v>23</v>
-      </c>
       <c r="U30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V30">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2783,22 +2864,25 @@
         <v>115</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
         <v>146</v>
       </c>
+      <c r="H31" t="s">
+        <v>149</v>
+      </c>
       <c r="I31">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="J31">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K31">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="M31">
         <v>0.8</v>
@@ -2807,28 +2891,28 @@
         <v>0.9</v>
       </c>
       <c r="O31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P31">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="R31">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="S31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="T31">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="V31">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2848,52 +2932,55 @@
         <v>116</v>
       </c>
       <c r="F32">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
       </c>
       <c r="I32">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J32">
+        <v>142</v>
+      </c>
+      <c r="K32">
+        <v>112</v>
+      </c>
+      <c r="L32">
+        <v>191</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <v>0.7</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>96</v>
+      </c>
+      <c r="R32">
+        <v>98</v>
+      </c>
+      <c r="S32">
         <v>38</v>
-      </c>
-      <c r="K32">
-        <v>36</v>
-      </c>
-      <c r="L32">
-        <v>57</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>21</v>
-      </c>
-      <c r="P32">
-        <v>34</v>
-      </c>
-      <c r="Q32">
-        <v>19</v>
-      </c>
-      <c r="R32">
-        <v>72</v>
-      </c>
-      <c r="S32">
-        <v>16</v>
       </c>
       <c r="T32">
         <v>38</v>
       </c>
       <c r="U32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2913,52 +3000,55 @@
         <v>117</v>
       </c>
       <c r="F33">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
       </c>
       <c r="I33">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J33">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="K33">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O33">
+        <v>14</v>
+      </c>
+      <c r="P33">
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <v>113</v>
+      </c>
+      <c r="R33">
+        <v>115</v>
+      </c>
+      <c r="S33">
+        <v>46</v>
+      </c>
+      <c r="T33">
+        <v>46</v>
+      </c>
+      <c r="U33">
         <v>22</v>
       </c>
-      <c r="P33">
-        <v>36</v>
-      </c>
-      <c r="Q33">
-        <v>22</v>
-      </c>
-      <c r="R33">
-        <v>89</v>
-      </c>
-      <c r="S33">
-        <v>19</v>
-      </c>
-      <c r="T33">
-        <v>56</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
       <c r="V33">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2972,52 +3062,55 @@
         <v>26</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>151</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="J34">
+        <v>127</v>
+      </c>
+      <c r="K34">
+        <v>150</v>
+      </c>
+      <c r="L34">
+        <v>160</v>
+      </c>
+      <c r="M34">
+        <v>0.68</v>
+      </c>
+      <c r="N34">
+        <v>0.76</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <v>96</v>
+      </c>
+      <c r="R34">
+        <v>103</v>
+      </c>
+      <c r="S34">
         <v>36</v>
       </c>
-      <c r="K34">
-        <v>32</v>
-      </c>
-      <c r="L34">
-        <v>52</v>
-      </c>
-      <c r="M34">
-        <v>0.88</v>
-      </c>
-      <c r="N34">
-        <v>0.9</v>
-      </c>
-      <c r="O34">
-        <v>21</v>
-      </c>
-      <c r="P34">
-        <v>36</v>
-      </c>
-      <c r="Q34">
-        <v>22</v>
-      </c>
-      <c r="R34">
-        <v>77</v>
-      </c>
-      <c r="S34">
-        <v>19</v>
-      </c>
       <c r="T34">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U34">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V34">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3037,55 +3130,55 @@
         <v>118</v>
       </c>
       <c r="F35">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H35" t="s">
         <v>149</v>
       </c>
       <c r="I35">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J35">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="L35">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="M35">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P35">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="R35">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U35">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="V35">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3105,52 +3198,55 @@
         <v>119</v>
       </c>
       <c r="F36">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H36" t="s">
+        <v>149</v>
       </c>
       <c r="I36">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J36">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="M36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N36">
         <v>0.9</v>
       </c>
       <c r="O36">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P36">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="R36">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="V36">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3170,55 +3266,55 @@
         <v>120</v>
       </c>
       <c r="F37">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M37">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N37">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O37">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P37">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="R37">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="V37">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3238,52 +3334,55 @@
         <v>121</v>
       </c>
       <c r="F38">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
       </c>
       <c r="I38">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="J38">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N38">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="R38">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="S38">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="U38">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V38">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3303,52 +3402,49 @@
         <v>122</v>
       </c>
       <c r="F39">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3362,52 +3458,55 @@
         <v>27</v>
       </c>
       <c r="F40">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
       </c>
       <c r="I40">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J40">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="L40">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N40">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P40">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="R40">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="V40">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3427,7 +3526,7 @@
         <v>123</v>
       </c>
       <c r="F41">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
         <v>147</v>
@@ -3436,46 +3535,46 @@
         <v>150</v>
       </c>
       <c r="I41">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M41">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="N41">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O41">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P41">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="R41">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="U41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V41">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3495,55 +3594,55 @@
         <v>124</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
         <v>147</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J42">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L42">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="M42">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="N42">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="O42">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P42">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="R42">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U42">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="V42">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3563,55 +3662,55 @@
         <v>125</v>
       </c>
       <c r="F43">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
         <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I43">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J43">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L43">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M43">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O43">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="P43">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="R43">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="S43">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="T43">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="U43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V43">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3631,55 +3730,55 @@
         <v>126</v>
       </c>
       <c r="F44">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I44">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J44">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K44">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L44">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O44">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="R44">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="U44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V44">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3693,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
         <v>147</v>
@@ -3702,46 +3801,46 @@
         <v>151</v>
       </c>
       <c r="I45">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J45">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M45">
-        <v>1.075</v>
+        <v>0.575</v>
       </c>
       <c r="N45">
-        <v>1.05</v>
+        <v>0.675</v>
       </c>
       <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>20</v>
+      </c>
+      <c r="Q45">
+        <v>102</v>
+      </c>
+      <c r="R45">
+        <v>116</v>
+      </c>
+      <c r="S45">
         <v>42</v>
       </c>
-      <c r="P45">
-        <v>61</v>
-      </c>
-      <c r="Q45">
-        <v>5</v>
-      </c>
-      <c r="R45">
-        <v>58</v>
-      </c>
-      <c r="S45">
-        <v>4</v>
-      </c>
       <c r="T45">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="U45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V45">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3761,7 +3860,7 @@
         <v>127</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
         <v>147</v>
@@ -3770,46 +3869,46 @@
         <v>149</v>
       </c>
       <c r="I46">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J46">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M46">
+        <v>0.8</v>
+      </c>
+      <c r="N46">
         <v>0.9</v>
       </c>
-      <c r="N46">
-        <v>0.8</v>
-      </c>
       <c r="O46">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="P46">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q46">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="R46">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="S46">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T46">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="U46">
         <v>7</v>
       </c>
       <c r="V46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3829,7 +3928,7 @@
         <v>128</v>
       </c>
       <c r="F47">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
         <v>147</v>
@@ -3838,46 +3937,46 @@
         <v>149</v>
       </c>
       <c r="I47">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J47">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N47">
         <v>0.9</v>
       </c>
       <c r="O47">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="P47">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q47">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="R47">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="S47">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="T47">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="U47">
+        <v>7</v>
+      </c>
+      <c r="V47">
         <v>4</v>
-      </c>
-      <c r="V47">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3897,7 +3996,7 @@
         <v>129</v>
       </c>
       <c r="F48">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
         <v>147</v>
@@ -3906,46 +4005,46 @@
         <v>150</v>
       </c>
       <c r="I48">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J48">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L48">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P48">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q48">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="R48">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="S48">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T48">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="U48">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V48">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3965,55 +4064,55 @@
         <v>130</v>
       </c>
       <c r="F49">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J49">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="L49">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N49">
         <v>0.8</v>
       </c>
       <c r="O49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="P49">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q49">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="R49">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="S49">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="T49">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="U49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V49">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4033,52 +4132,52 @@
         <v>131</v>
       </c>
       <c r="F50">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
         <v>147</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J50">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K50">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="L50">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M50">
         <v>0.7</v>
       </c>
       <c r="N50">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O50">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P50">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q50">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="R50">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S50">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="T50">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="U50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V50">
         <v>8</v>
@@ -4101,52 +4200,55 @@
         <v>132</v>
       </c>
       <c r="F51">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H51" t="s">
+        <v>149</v>
       </c>
       <c r="I51">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J51">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L51">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M51">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O51">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q51">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="R51">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="S51">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="T51">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="U51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V51">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4166,7 +4268,7 @@
         <v>133</v>
       </c>
       <c r="F52">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
         <v>147</v>
@@ -4175,46 +4277,46 @@
         <v>149</v>
       </c>
       <c r="I52">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J52">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="L52">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O52">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P52">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q52">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="R52">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="S52">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T52">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="U52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V52">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4234,52 +4336,55 @@
         <v>134</v>
       </c>
       <c r="F53">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H53" t="s">
+        <v>149</v>
       </c>
       <c r="I53">
+        <v>40</v>
+      </c>
+      <c r="J53">
         <v>29</v>
       </c>
-      <c r="J53">
-        <v>23</v>
-      </c>
       <c r="K53">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M53">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O53">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P53">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="R53">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S53">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T53">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="U53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V53">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4299,52 +4404,55 @@
         <v>135</v>
       </c>
       <c r="F54">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H54" t="s">
+        <v>149</v>
       </c>
       <c r="I54">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="J54">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="K54">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="L54">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M54">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N54">
         <v>0.6</v>
       </c>
       <c r="O54">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P54">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="R54">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="S54">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="T54">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="U54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V54">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4364,52 +4472,55 @@
         <v>136</v>
       </c>
       <c r="F55">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H55" t="s">
+        <v>149</v>
       </c>
       <c r="I55">
+        <v>41</v>
+      </c>
+      <c r="J55">
         <v>33</v>
       </c>
-      <c r="J55">
-        <v>31</v>
-      </c>
       <c r="K55">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L55">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="M55">
         <v>0.7</v>
       </c>
       <c r="N55">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O55">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P55">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Q55">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R55">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S55">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T55">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="U55">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="V55">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4435,46 +4546,46 @@
         <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I56">
         <v>48</v>
       </c>
       <c r="J56">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K56">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L56">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="M56">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N56">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="P56">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="R56">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S56">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="T56">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="U56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V56">
         <v>9</v>
@@ -4491,55 +4602,55 @@
         <v>29</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
         <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I57">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J57">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L57">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="M57">
-        <v>0.8179999999999999</v>
+        <v>0.645</v>
       </c>
       <c r="N57">
-        <v>0.755</v>
+        <v>0.655</v>
       </c>
       <c r="O57">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="P57">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="R57">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="S57">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="T57">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V57">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4559,55 +4670,55 @@
         <v>138</v>
       </c>
       <c r="F58">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
         <v>147</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I58">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J58">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L58">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N58">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="O58">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="P58">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Q58">
+        <v>113</v>
+      </c>
+      <c r="R58">
+        <v>128</v>
+      </c>
+      <c r="S58">
+        <v>48</v>
+      </c>
+      <c r="T58">
+        <v>61</v>
+      </c>
+      <c r="U58">
+        <v>9</v>
+      </c>
+      <c r="V58">
         <v>8</v>
-      </c>
-      <c r="R58">
-        <v>40</v>
-      </c>
-      <c r="S58">
-        <v>5</v>
-      </c>
-      <c r="T58">
-        <v>5</v>
-      </c>
-      <c r="U58">
-        <v>7</v>
-      </c>
-      <c r="V58">
-        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4627,55 +4738,55 @@
         <v>139</v>
       </c>
       <c r="F59">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
         <v>147</v>
       </c>
       <c r="H59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I59">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J59">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="L59">
+        <v>73</v>
+      </c>
+      <c r="M59">
+        <v>0.6</v>
+      </c>
+      <c r="N59">
+        <v>0.7</v>
+      </c>
+      <c r="O59">
+        <v>13</v>
+      </c>
+      <c r="P59">
+        <v>20</v>
+      </c>
+      <c r="Q59">
+        <v>117</v>
+      </c>
+      <c r="R59">
+        <v>124</v>
+      </c>
+      <c r="S59">
+        <v>50</v>
+      </c>
+      <c r="T59">
         <v>76</v>
       </c>
-      <c r="M59">
-        <v>0.9</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>34</v>
-      </c>
-      <c r="P59">
-        <v>65</v>
-      </c>
-      <c r="Q59">
+      <c r="U59">
+        <v>8</v>
+      </c>
+      <c r="V59">
         <v>9</v>
-      </c>
-      <c r="R59">
-        <v>30</v>
-      </c>
-      <c r="S59">
-        <v>5</v>
-      </c>
-      <c r="T59">
-        <v>5</v>
-      </c>
-      <c r="U59">
-        <v>7</v>
-      </c>
-      <c r="V59">
-        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4695,7 +4806,7 @@
         <v>140</v>
       </c>
       <c r="F60">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
         <v>147</v>
@@ -4704,46 +4815,46 @@
         <v>150</v>
       </c>
       <c r="I60">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J60">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>89</v>
+      </c>
+      <c r="L60">
+        <v>55</v>
+      </c>
+      <c r="M60">
+        <v>0.3</v>
+      </c>
+      <c r="N60">
+        <v>0.4</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>10</v>
+      </c>
+      <c r="Q60">
+        <v>98</v>
+      </c>
+      <c r="R60">
+        <v>105</v>
+      </c>
+      <c r="S60">
         <v>54</v>
       </c>
-      <c r="K60">
-        <v>42</v>
-      </c>
-      <c r="L60">
-        <v>71</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1.1</v>
-      </c>
-      <c r="O60">
-        <v>21</v>
-      </c>
-      <c r="P60">
-        <v>55</v>
-      </c>
-      <c r="Q60">
-        <v>12</v>
-      </c>
-      <c r="R60">
-        <v>32</v>
-      </c>
-      <c r="S60">
-        <v>7</v>
-      </c>
       <c r="T60">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="U60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V60">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4763,52 +4874,55 @@
         <v>141</v>
       </c>
       <c r="F61">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H61" t="s">
+        <v>150</v>
       </c>
       <c r="I61">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J61">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="L61">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O61">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="R61">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="S61">
+        <v>53</v>
+      </c>
+      <c r="T61">
+        <v>66</v>
+      </c>
+      <c r="U61">
         <v>5</v>
       </c>
-      <c r="T61">
-        <v>5</v>
-      </c>
-      <c r="U61">
-        <v>4</v>
-      </c>
       <c r="V61">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4822,55 +4936,55 @@
         <v>30</v>
       </c>
       <c r="F62">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
         <v>147</v>
       </c>
       <c r="H62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I62">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J62">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K62">
+        <v>81</v>
+      </c>
+      <c r="L62">
+        <v>69</v>
+      </c>
+      <c r="M62">
+        <v>0.55</v>
+      </c>
+      <c r="N62">
+        <v>0.625</v>
+      </c>
+      <c r="O62">
+        <v>9</v>
+      </c>
+      <c r="P62">
+        <v>15</v>
+      </c>
+      <c r="Q62">
+        <v>112</v>
+      </c>
+      <c r="R62">
+        <v>120</v>
+      </c>
+      <c r="S62">
         <v>51</v>
       </c>
-      <c r="L62">
-        <v>75</v>
-      </c>
-      <c r="M62">
-        <v>0.975</v>
-      </c>
-      <c r="N62">
-        <v>1.05</v>
-      </c>
-      <c r="O62">
-        <v>28</v>
-      </c>
-      <c r="P62">
-        <v>58</v>
-      </c>
-      <c r="Q62">
-        <v>10</v>
-      </c>
-      <c r="R62">
-        <v>35</v>
-      </c>
-      <c r="S62">
-        <v>5</v>
-      </c>
       <c r="T62">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V62">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4890,55 +5004,55 @@
         <v>142</v>
       </c>
       <c r="F63">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
         <v>147</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I63">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J63">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K63">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L63">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M63">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N63">
         <v>0.8</v>
       </c>
       <c r="O63">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="P63">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="Q63">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="R63">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="S63">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="T63">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="U63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V63">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4958,55 +5072,55 @@
         <v>143</v>
       </c>
       <c r="F64">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H64" t="s">
         <v>150</v>
       </c>
       <c r="I64">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="J64">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="L64">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="M64">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="N64">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O64">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="P64">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q64">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="R64">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="S64">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T64">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="U64">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V64">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -5026,55 +5140,55 @@
         <v>144</v>
       </c>
       <c r="F65">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
         <v>147</v>
       </c>
       <c r="H65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I65">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J65">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K65">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="L65">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N65">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O65">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P65">
+        <v>28</v>
+      </c>
+      <c r="Q65">
+        <v>105</v>
+      </c>
+      <c r="R65">
+        <v>151</v>
+      </c>
+      <c r="S65">
         <v>59</v>
       </c>
-      <c r="Q65">
-        <v>12</v>
-      </c>
-      <c r="R65">
-        <v>51</v>
-      </c>
-      <c r="S65">
-        <v>11</v>
-      </c>
       <c r="T65">
+        <v>91</v>
+      </c>
+      <c r="U65">
         <v>13</v>
       </c>
-      <c r="U65">
-        <v>8</v>
-      </c>
       <c r="V65">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -5094,7 +5208,7 @@
         <v>145</v>
       </c>
       <c r="F66">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
         <v>147</v>
@@ -5103,46 +5217,46 @@
         <v>149</v>
       </c>
       <c r="I66">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J66">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L66">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N66">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O66">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="R66">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="S66">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="T66">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V66">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5156,7 +5270,7 @@
         <v>31</v>
       </c>
       <c r="F67">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
         <v>147</v>
@@ -5165,46 +5279,46 @@
         <v>151</v>
       </c>
       <c r="I67">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J67">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K67">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L67">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M67">
-        <v>1.05</v>
+        <v>0.6</v>
       </c>
       <c r="N67">
-        <v>0.875</v>
+        <v>0.65</v>
       </c>
       <c r="O67">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="P67">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="R67">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="S67">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="T67">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V67">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5290,52 +5404,55 @@
         <v>23</v>
       </c>
       <c r="D2">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>124</v>
+      </c>
+      <c r="I2">
+        <v>129</v>
+      </c>
+      <c r="J2">
+        <v>101</v>
+      </c>
+      <c r="K2">
+        <v>0.782</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>26</v>
-      </c>
-      <c r="J2">
-        <v>61</v>
-      </c>
-      <c r="K2">
-        <v>0.95</v>
-      </c>
-      <c r="L2">
-        <v>1.027</v>
-      </c>
-      <c r="M2">
-        <v>28</v>
-      </c>
       <c r="N2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="P2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5349,52 +5466,55 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O3">
+        <v>109</v>
+      </c>
+      <c r="P3">
+        <v>112</v>
+      </c>
+      <c r="Q3">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>56</v>
+      </c>
+      <c r="S3">
         <v>13</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>17</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5408,52 +5528,55 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I4">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="J4">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="K4">
-        <v>0.829</v>
+        <v>0.763</v>
       </c>
       <c r="L4">
-        <v>0.888</v>
+        <v>0.925</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5467,52 +5590,55 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="H5">
+        <v>127</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>0.68</v>
+      </c>
+      <c r="L5">
+        <v>0.76</v>
+      </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <v>96</v>
+      </c>
+      <c r="P5">
+        <v>103</v>
+      </c>
+      <c r="Q5">
         <v>36</v>
       </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>52</v>
-      </c>
-      <c r="K5">
-        <v>0.88</v>
-      </c>
-      <c r="L5">
-        <v>0.9</v>
-      </c>
-      <c r="M5">
-        <v>21</v>
-      </c>
-      <c r="N5">
-        <v>36</v>
-      </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>77</v>
-      </c>
-      <c r="Q5">
-        <v>19</v>
-      </c>
       <c r="R5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5526,52 +5652,55 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J6">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N6">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="P6">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T6">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -5585,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
@@ -5594,46 +5723,46 @@
         <v>151</v>
       </c>
       <c r="G7">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>1.075</v>
+        <v>0.575</v>
       </c>
       <c r="L7">
-        <v>1.05</v>
+        <v>0.675</v>
       </c>
       <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>102</v>
+      </c>
+      <c r="P7">
+        <v>116</v>
+      </c>
+      <c r="Q7">
         <v>42</v>
       </c>
-      <c r="N7">
-        <v>61</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>58</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
       <c r="R7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -5647,55 +5776,55 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J8">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.8179999999999999</v>
+        <v>0.645</v>
       </c>
       <c r="L8">
-        <v>0.755</v>
+        <v>0.655</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="P8">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="R8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -5709,55 +5838,55 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I9">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>69</v>
+      </c>
+      <c r="K9">
+        <v>0.55</v>
+      </c>
+      <c r="L9">
+        <v>0.625</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>120</v>
+      </c>
+      <c r="Q9">
         <v>51</v>
       </c>
-      <c r="J9">
-        <v>75</v>
-      </c>
-      <c r="K9">
-        <v>0.975</v>
-      </c>
-      <c r="L9">
-        <v>1.05</v>
-      </c>
-      <c r="M9">
-        <v>28</v>
-      </c>
-      <c r="N9">
-        <v>58</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>35</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
       <c r="R9">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -5771,7 +5900,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>147</v>
@@ -5780,46 +5909,46 @@
         <v>151</v>
       </c>
       <c r="G10">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>1.05</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>0.875</v>
+        <v>0.65</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O10">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="P10">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="R10">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
